--- a/Team-Data/2013-14/4-9-2013-14.xlsx
+++ b/Team-Data/2013-14/4-9-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
         <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>0.449</v>
+        <v>0.442</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J2" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>9.5</v>
@@ -696,7 +763,7 @@
         <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
@@ -705,10 +772,10 @@
         <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S2" t="n">
         <v>31.2</v>
@@ -723,13 +790,13 @@
         <v>15.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
         <v>19.2</v>
@@ -741,10 +808,10 @@
         <v>101.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>1</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="n">
-        <v>0.295</v>
+        <v>0.299</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -872,34 +939,34 @@
         <v>0.433</v>
       </c>
       <c r="L3" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
       <c r="O3" t="n">
         <v>16.2</v>
       </c>
       <c r="P3" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R3" t="n">
         <v>12.1</v>
       </c>
       <c r="S3" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T3" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V3" t="n">
         <v>15.3</v>
@@ -917,7 +984,7 @@
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
         <v>95.7</v>
@@ -926,13 +993,13 @@
         <v>-4.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
@@ -953,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -962,13 +1029,13 @@
         <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS3" t="n">
         <v>24</v>
@@ -986,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.551</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1066,7 +1133,7 @@
         <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q4" t="n">
         <v>0.757</v>
@@ -1087,7 +1154,7 @@
         <v>14.3</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X4" t="n">
         <v>3.9</v>
@@ -1102,13 +1169,13 @@
         <v>20.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1138,13 +1205,13 @@
         <v>10</v>
       </c>
       <c r="AN4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO4" t="n">
         <v>11</v>
       </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>16</v>
@@ -1168,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1177,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.513</v>
+        <v>0.506</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,37 +1297,37 @@
         <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K5" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R5" t="n">
         <v>9.4</v>
       </c>
       <c r="S5" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
         <v>21.4</v>
@@ -1272,10 +1339,10 @@
         <v>6.1</v>
       </c>
       <c r="X5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
         <v>18.2</v>
@@ -1290,25 +1357,25 @@
         <v>-0.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1320,13 +1387,13 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1338,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU5" t="n">
         <v>17</v>
@@ -1353,16 +1420,16 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.59</v>
+        <v>0.584</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
         <v>80.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M6" t="n">
         <v>17.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.778</v>
@@ -1439,13 +1506,13 @@
         <v>11.6</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U6" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V6" t="n">
         <v>15.1</v>
@@ -1466,13 +1533,13 @@
         <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1496,13 +1563,13 @@
         <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1511,7 +1578,7 @@
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>10</v>
@@ -1520,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
         <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>0.405</v>
+        <v>0.397</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
       </c>
       <c r="I7" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O7" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R7" t="n">
         <v>12</v>
@@ -1627,7 +1694,7 @@
         <v>44</v>
       </c>
       <c r="U7" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
         <v>14.3</v>
@@ -1639,25 +1706,25 @@
         <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z7" t="n">
         <v>19.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.6</v>
+        <v>-3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1675,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1687,13 +1754,13 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1705,13 +1772,13 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1869,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1881,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -1940,34 +2007,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
         <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.436</v>
+        <v>0.429</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J9" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L9" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="N9" t="n">
         <v>0.363</v>
@@ -1976,31 +2043,31 @@
         <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R9" t="n">
         <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T9" t="n">
         <v>45.2</v>
       </c>
       <c r="U9" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y9" t="n">
         <v>5.7</v>
@@ -2012,13 +2079,13 @@
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.4</v>
+        <v>104.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -2122,52 +2189,52 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N10" t="n">
         <v>0.321</v>
       </c>
       <c r="O10" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.672</v>
       </c>
       <c r="R10" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
         <v>45.3</v>
@@ -2179,7 +2246,7 @@
         <v>14.6</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X10" t="n">
         <v>4.9</v>
@@ -2188,7 +2255,7 @@
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA10" t="n">
         <v>20.5</v>
@@ -2197,10 +2264,10 @@
         <v>100.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2218,22 +2285,22 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2251,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>12</v>
@@ -2272,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2424,7 +2491,7 @@
         <v>19</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2439,7 +2506,7 @@
         <v>22</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
@@ -2457,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
         <v>52</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.675</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,28 +2571,28 @@
         <v>38.1</v>
       </c>
       <c r="J12" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.474</v>
       </c>
       <c r="L12" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M12" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
         <v>22</v>
       </c>
       <c r="P12" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.709</v>
+        <v>0.707</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2534,10 +2601,10 @@
         <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V12" t="n">
         <v>16.3</v>
@@ -2558,19 +2625,19 @@
         <v>24.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
@@ -2588,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="AL12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2627,10 +2694,10 @@
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" t="n">
         <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,7 +2753,7 @@
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K13" t="n">
         <v>0.447</v>
@@ -2695,19 +2762,19 @@
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P13" t="n">
         <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R13" t="n">
         <v>10.2</v>
@@ -2719,10 +2786,10 @@
         <v>44.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
@@ -2740,22 +2807,22 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC13" t="n">
         <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
       </c>
       <c r="AF13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2767,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
         <v>24</v>
@@ -2776,10 +2843,10 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2812,13 +2879,13 @@
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="n">
         <v>55</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.696</v>
+        <v>0.705</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2871,7 +2938,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>8.4</v>
@@ -2880,7 +2947,7 @@
         <v>23.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O14" t="n">
         <v>21.1</v>
@@ -2889,16 +2956,16 @@
         <v>28.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
         <v>24.5</v>
@@ -2907,13 +2974,13 @@
         <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>4.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
         <v>21.5</v>
@@ -2922,13 +2989,13 @@
         <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2976,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2991,13 +3058,13 @@
         <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ14" t="n">
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3131,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3146,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.59</v>
+        <v>0.584</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
         <v>15.1</v>
@@ -3253,7 +3320,7 @@
         <v>20.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R16" t="n">
         <v>11.5</v>
@@ -3265,7 +3332,7 @@
         <v>42.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
@@ -3277,22 +3344,22 @@
         <v>4.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z16" t="n">
         <v>19.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC16" t="n">
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3307,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3334,10 +3401,10 @@
         <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
         <v>53</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.679</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3420,31 +3487,31 @@
         <v>0.503</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
         <v>22.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="U17" t="n">
         <v>22.8</v>
@@ -3456,13 +3523,13 @@
         <v>8.9</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
@@ -3471,25 +3538,25 @@
         <v>102.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3513,13 +3580,13 @@
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" t="n">
-        <v>0.179</v>
+        <v>0.182</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O18" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P18" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="n">
         <v>0.752</v>
@@ -3623,10 +3690,10 @@
         <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
         <v>21.5</v>
@@ -3650,13 +3717,13 @@
         <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3677,31 +3744,31 @@
         <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT18" t="n">
         <v>23</v>
@@ -3719,7 +3786,7 @@
         <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" t="n">
         <v>39</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J19" t="n">
-        <v>87.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.445</v>
@@ -3790,16 +3857,16 @@
         <v>21.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P19" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
         <v>12.5</v>
@@ -3808,58 +3875,58 @@
         <v>32.3</v>
       </c>
       <c r="T19" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V19" t="n">
         <v>13.9</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>3.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z19" t="n">
         <v>18.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.4</v>
+        <v>106.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
         <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>7</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
@@ -3877,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3901,19 +3968,19 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>3</v>
       </c>
       <c r="BA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB19" t="n">
         <v>3</v>
       </c>
-      <c r="BB19" t="n">
-        <v>4</v>
-      </c>
       <c r="BC19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
         <v>82.40000000000001</v>
@@ -3972,13 +4039,13 @@
         <v>15.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P20" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q20" t="n">
         <v>0.77</v>
@@ -3987,13 +4054,13 @@
         <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
         <v>41.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>13.9</v>
@@ -4011,34 +4078,34 @@
         <v>22.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
         <v>11</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
@@ -4214,16 +4281,16 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
         <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4235,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP21" t="n">
         <v>30</v>
@@ -4259,19 +4326,19 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -4306,43 +4373,43 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.731</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q22" t="n">
         <v>0.804</v>
@@ -4357,10 +4424,10 @@
         <v>44.8</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4429,7 +4496,7 @@
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4438,7 +4505,7 @@
         <v>14</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
         <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>0.295</v>
+        <v>0.286</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="R23" t="n">
         <v>9.800000000000001</v>
@@ -4536,10 +4603,10 @@
         <v>32.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V23" t="n">
         <v>14.8</v>
@@ -4548,46 +4615,46 @@
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH23" t="n">
         <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4596,13 +4663,13 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
         <v>12</v>
@@ -4617,19 +4684,19 @@
         <v>19</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>22</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>13</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" t="n">
-        <v>0.218</v>
+        <v>0.221</v>
       </c>
       <c r="H24" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J24" t="n">
         <v>87.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L24" t="n">
         <v>7.1</v>
@@ -4700,25 +4767,25 @@
         <v>22.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.711</v>
+        <v>0.709</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U24" t="n">
         <v>21.9</v>
@@ -4727,7 +4794,7 @@
         <v>17</v>
       </c>
       <c r="W24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>4</v>
@@ -4736,19 +4803,19 @@
         <v>6.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>-10.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,13 +4827,13 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4793,10 +4860,10 @@
         <v>9</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU24" t="n">
         <v>13</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4879,34 +4946,34 @@
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O25" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P25" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q25" t="n">
         <v>0.758</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S25" t="n">
         <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U25" t="n">
         <v>19.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W25" t="n">
         <v>8.300000000000001</v>
@@ -4921,16 +4988,16 @@
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="AC25" t="n">
         <v>2.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4948,13 +5015,13 @@
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
         <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
@@ -4966,13 +5033,13 @@
         <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4984,7 +5051,7 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.646</v>
+        <v>0.641</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,7 +5119,7 @@
         <v>39</v>
       </c>
       <c r="J26" t="n">
-        <v>86.8</v>
+        <v>87</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
@@ -5073,10 +5140,10 @@
         <v>23.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S26" t="n">
         <v>33.8</v>
@@ -5097,7 +5164,7 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
         <v>19.4</v>
@@ -5106,13 +5173,13 @@
         <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="AC26" t="n">
         <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5130,10 +5197,10 @@
         <v>6</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5184,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J27" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.447</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M27" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O27" t="n">
         <v>20.7</v>
@@ -5282,19 +5349,19 @@
         <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
         <v>23.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AC27" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5312,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="n">
         <v>19</v>
@@ -5333,16 +5400,16 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5354,7 +5421,7 @@
         <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.59</v>
+        <v>0.584</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5601,7 +5668,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
         <v>8.5</v>
@@ -5610,34 +5677,34 @@
         <v>23.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R29" t="n">
         <v>11.4</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U29" t="n">
         <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>4.2</v>
@@ -5646,19 +5713,19 @@
         <v>4.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5676,7 +5743,7 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
@@ -5688,13 +5755,13 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
         <v>5</v>
@@ -5706,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU29" t="n">
         <v>20</v>
@@ -5715,10 +5782,10 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5730,10 +5797,10 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5852,7 +5919,7 @@
         <v>26</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -5882,7 +5949,7 @@
         <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.513</v>
+        <v>0.519</v>
       </c>
       <c r="H31" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J31" t="n">
         <v>84.5</v>
@@ -5968,13 +6035,13 @@
         <v>0.456</v>
       </c>
       <c r="L31" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.382</v>
+        <v>0.385</v>
       </c>
       <c r="O31" t="n">
         <v>15.3</v>
@@ -5983,13 +6050,13 @@
         <v>20.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T31" t="n">
         <v>42.3</v>
@@ -6004,25 +6071,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC31" t="n">
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6043,13 +6110,13 @@
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>16</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
         <v>3</v>
@@ -6064,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-9-2013-14</t>
+          <t>2014-04-09</t>
         </is>
       </c>
     </row>
